--- a/table definition.xlsx
+++ b/table definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1216909\本地文档\Code\fastapi-vue3-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\task-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E538DFB-B2FD-4F78-9BC8-9C4CA8A47220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2BFC9-FBFA-4133-A08A-4BE6FCEB8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="4" xr2:uid="{62D17E7D-AF57-4832-A1F9-7F9C28206E68}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="885" activeTab="10" xr2:uid="{62D17E7D-AF57-4832-A1F9-7F9C28206E68}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="9" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="647">
   <si>
     <t>colum name</t>
   </si>
@@ -2139,6 +2139,15 @@
   </si>
   <si>
     <t>recipients</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>property list[Sample]</t>
+  </si>
+  <si>
+    <t>link(task_sample_rel)</t>
   </si>
 </sst>
 </file>
@@ -2429,7 +2438,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2974,14 +2983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F28812-4396-4343-BFE3-8DDEF2F3BFAD}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="49.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
@@ -3769,13 +3778,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
-        <v>77</v>
+        <v>644</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>645</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>646</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -9366,7 +9375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CEE20B-16F6-4299-B4C1-6664F813B984}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
